--- a/data/Study_dates_MeLiDos_FUSPCEU.xlsx
+++ b/data/Study_dates_MeLiDos_FUSPCEU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zauner/Documents/Arbeit/12-TUM/WP2.2.5_Data_Analysis/BaezaEtAl_Dataset_2025/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BC12D6-47B0-CB40-9025-D714CCE1BE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD287A5-9364-9346-AF1C-8C9AA494E304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="58180" yWindow="9380" windowWidth="29040" windowHeight="15840" xr2:uid="{EB2C5E3B-016F-4147-BA32-349D8E1D3953}"/>
   </bookViews>
@@ -736,7 +736,7 @@
   <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -803,7 +803,7 @@
         <v>45572.666666666664</v>
       </c>
       <c r="E3" s="6">
-        <v>45572.677777777775</v>
+        <v>45572.6875</v>
       </c>
       <c r="F3" s="5">
         <v>45572.673611111109</v>
@@ -830,7 +830,7 @@
         <v>45572.666666666664</v>
       </c>
       <c r="E4" s="6">
-        <v>45572.677777777775</v>
+        <v>45572.6875</v>
       </c>
       <c r="F4" s="5">
         <v>45572.673611111109</v>
@@ -857,7 +857,7 @@
         <v>45572.666666666664</v>
       </c>
       <c r="E5" s="6">
-        <v>45572.677777777775</v>
+        <v>45572.6875</v>
       </c>
       <c r="F5" s="5">
         <v>45572.673611111109</v>
@@ -895,7 +895,7 @@
         <v>45572.618055555555</v>
       </c>
       <c r="E7" s="6">
-        <v>45572.638194444444</v>
+        <v>45572.652777777781</v>
       </c>
       <c r="F7" s="5">
         <v>45572.630555555559</v>
@@ -922,7 +922,7 @@
         <v>45572.618055555555</v>
       </c>
       <c r="E8" s="6">
-        <v>45572.638194444444</v>
+        <v>45572.652777777781</v>
       </c>
       <c r="F8" s="5">
         <v>45572.630555555559</v>
@@ -949,7 +949,7 @@
         <v>45572.618055555555</v>
       </c>
       <c r="E9" s="6">
-        <v>45572.638194444444</v>
+        <v>45572.652777777781</v>
       </c>
       <c r="F9" s="5">
         <v>45572.630555555559</v>
